--- a/testcases/moonjjAPI72.xlsx
+++ b/testcases/moonjjAPI72.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="fileupload_test" sheetId="1" r:id="rId1"/>
-    <sheet name="inviteuser_" sheetId="2" r:id="rId2"/>
+    <sheet name="getSheets_test" sheetId="2" r:id="rId2"/>
     <sheet name="availableroles_" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
-  <si>
-    <t>apifixture.TempleteFixture</t>
-  </si>
-  <si>
-    <t>接口测试用例</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+  <si>
+    <t>上传文件接口测试用例</t>
   </si>
   <si>
     <t>Interface</t>
@@ -50,33 +47,18 @@
     <t>fixture.LoginFixture</t>
   </si>
   <si>
-    <t>testCaseId</t>
-  </si>
-  <si>
-    <t>filepath</t>
-  </si>
-  <si>
-    <t>needSavePreResults</t>
-  </si>
-  <si>
-    <t>expectResult()</t>
-  </si>
-  <si>
-    <t>actualResult</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>"data":\d{16}</t>
-  </si>
-  <si>
-    <t>http://192.168.1.188:8000/mojing-server</t>
-  </si>
-  <si>
-    <t>/grant/roleemail</t>
-  </si>
-  <si>
+    <r>
+      <t>Comment: savePreResultInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于保存上次请求</t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
@@ -84,7 +66,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>Comment: savePreResultInfo</t>
+      <t>response</t>
     </r>
     <r>
       <rPr>
@@ -93,7 +75,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>用于保存上次请求</t>
+      <t>需要保存的测试字段值，不同字段用“，”分割；可用正则或完成字段名，</t>
     </r>
     <r>
       <rPr>
@@ -102,7 +84,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>response</t>
+      <t>login</t>
     </r>
     <r>
       <rPr>
@@ -111,7 +93,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>需要保存的测试字段值，不同字段用“</t>
+      <t>这一行用于登录，不需要的这行可以直接删除</t>
     </r>
     <r>
       <rPr>
@@ -120,7 +102,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>;</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -129,7 +111,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>”分割；格式为</t>
+      <t>标题栏不能包含</t>
     </r>
     <r>
       <rPr>
@@ -138,7 +120,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>key=value</t>
+      <t>fixture</t>
     </r>
     <r>
       <rPr>
@@ -147,8 +129,70 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>其中</t>
-    </r>
+      <t>关键词</t>
+    </r>
+  </si>
+  <si>
+    <t>testCaseId</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>expectResult()</t>
+  </si>
+  <si>
+    <t>actualResult</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>"data":\d{16}</t>
+  </si>
+  <si>
+    <t>2825k</t>
+  </si>
+  <si>
+    <t>csv格式</t>
+  </si>
+  <si>
+    <t>C:\Users\xh\Desktop\ImportData\数据源汇总TXT.txt</t>
+  </si>
+  <si>
+    <t>txt格式</t>
+  </si>
+  <si>
+    <t>C:\Users\xh\Desktop\ImportData\FullTest.xlsx</t>
+  </si>
+  <si>
+    <t>1485k</t>
+  </si>
+  <si>
+    <t>C:\Users\xh\Desktop\ImportData\49.8M.xlsx</t>
+  </si>
+  <si>
+    <t>49.8M</t>
+  </si>
+  <si>
+    <t>C:\Users\xh\Desktop\ImportData\数据源汇总.xlsx</t>
+  </si>
+  <si>
+    <t>many sheets</t>
+  </si>
+  <si>
+    <t>apifixture.TempleteFixture</t>
+  </si>
+  <si>
+    <t>获取tables的sheets接口测试用例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds/{datasourceId}/tables </t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -156,7 +200,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>value</t>
+      <t>Comment: savePreResultInfo</t>
     </r>
     <r>
       <rPr>
@@ -165,7 +209,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>可用正则或完整值，</t>
+      <t>用于保存上次请求</t>
     </r>
     <r>
       <rPr>
@@ -174,7 +218,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>login</t>
+      <t>response</t>
     </r>
     <r>
       <rPr>
@@ -183,124 +227,155 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>这一行用于登录，不需要的这行可以直接删除</t>
-    </r>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>roleIds</t>
-  </si>
-  <si>
-    <t>projectId</t>
-  </si>
-  <si>
-    <t>zzj@data-god.com</t>
-  </si>
-  <si>
-    <t>[101]</t>
-  </si>
-  <si>
-    <t>http://192.168.1.188:8000/mojing-server/</t>
-  </si>
-  <si>
-    <t>/auth/project/availableRoles</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>LoginFixture</t>
-  </si>
-  <si>
-    <t>{"url":url,"username":"","pwd":pwd}</t>
-  </si>
-  <si>
-    <t>{"token":"*\w+"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Comment: savePreResultInfo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用于保存上次请求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>需要保存的测试字段值，不同字段用“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>response</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>需要保存的测试字段值，不同字段用“，”分割；可用正则或完成字段名，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>”分割；格式为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
+      <t>key=value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可用正则或完整值，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>login</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>这一行用于登录，不需要的这行可以直接删除</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>C:\Users\xh\Desktop\某公司销售数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <t>needInterface</t>
+  </si>
+  <si>
+    <t>needResult</t>
+  </si>
+  <si>
+    <t>{datasourceId}</t>
+  </si>
+  <si>
+    <t>zzj@data-god.com</t>
+  </si>
+  <si>
+    <t>接口测试用例</t>
+  </si>
+  <si>
+    <t>http://192.168.1.188:8000/mojing-server/</t>
+  </si>
+  <si>
+    <t>/auth/project/availableRoles</t>
+  </si>
+  <si>
+    <t>LoginFixture</t>
+  </si>
+  <si>
+    <t>{"url":url,"username":"","pwd":pwd}</t>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <r>
+      <t>C:\Users\water\Desktop\test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color rgb="FF222222"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.xls</t>
-    </r>
-  </si>
-  <si>
-    <t>"token":"*\w+"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"precsp.moojnn.com/mojingcsp/authentication","username":"18015505671","password":"e10adc3949ba59abbe56e057f20f883e"}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+      <t>.txt</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"url":"pre.moojnn.com/mojing-server/login","name":"18015505671","password":"e10adc3949ba59abbe56e057f20f883e","code":""}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ds/fileupload</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C:\Users\water\Desktop\测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +423,26 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -360,66 +455,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -666,9 +710,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,88 +779,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,17 +1157,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="58" style="3" customWidth="1"/>
-    <col min="3" max="4" width="35.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" s="24" customFormat="1" ht="72">
+      <c r="A5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.25">
+      <c r="A8" s="35">
+        <v>1</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="24" customFormat="1" ht="14.25">
+      <c r="A9" s="35">
+        <v>2</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="24" customFormat="1" ht="14.25">
+      <c r="A10" s="35">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="24" customFormat="1" ht="14.25">
+      <c r="A11" s="35">
+        <v>4</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="24" customFormat="1" ht="14.25">
+      <c r="A12" s="35">
+        <v>5</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="24" customFormat="1" ht="14.25">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="24" customFormat="1"/>
+    <row r="15" spans="1:6" s="24" customFormat="1"/>
+    <row r="16" spans="1:6" s="24" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://pre.moojnn.com/mojing-server"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="46.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="3" customWidth="1"/>
@@ -1155,298 +1379,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
-      <c r="A9" s="39">
-        <v>1</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://pre.moojnn.com/mojing-server"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="35.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="46.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="31.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="18">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1">
-      <c r="A6" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="18">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1">
+      <c r="A6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="14.25">
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="14.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>22</v>
+      <c r="B8" s="23" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="16">
-        <v>999</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="14.25">
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="14.25">
       <c r="A9" s="19">
         <v>2</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C9" s="16">
         <v>101</v>
       </c>
-      <c r="D9" s="16">
-        <v>10000</v>
-      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://pre.moojnn.com/mojing-server"/>
     <hyperlink ref="B8" r:id="rId2"/>
     <hyperlink ref="B9" r:id="rId3"/>
   </hyperlinks>
@@ -1476,12 +1528,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1491,10 +1543,10 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1503,10 +1555,10 @@
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1515,10 +1567,10 @@
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1527,10 +1579,10 @@
     </row>
     <row r="6" spans="1:6" ht="18">
       <c r="A6" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -1538,30 +1590,30 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="A7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="A7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="18">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="14.25">
@@ -1590,7 +1642,7 @@
   <mergeCells count="1">
     <mergeCell ref="A7:F7"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B9" r:id="rId2" display="9999"/>

--- a/testcases/moonjjAPI72.xlsx
+++ b/testcases/moonjjAPI72.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>上传文件接口测试用例</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Function</t>
   </si>
   <si>
-    <t>ds/fileupload</t>
+    <t>/ds/fileupload</t>
   </si>
   <si>
     <t>Request</t>
@@ -47,7 +47,16 @@
     <t>fixture.LoginFixture</t>
   </si>
   <si>
-    <r>
+    <t>{"url":"pre.moojnn.com/mojing-server/login","name":18015505671,"password":"e10adc3949ba59abbe56e057f20f883e","code":""}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>Comment: savePreResultInfo</t>
     </r>
     <r>
@@ -157,40 +166,40 @@
     <t>csv格式</t>
   </si>
   <si>
-    <t>C:\Users\xh\Desktop\ImportData\数据源汇总TXT.txt</t>
-  </si>
-  <si>
     <t>txt格式</t>
   </si>
   <si>
-    <t>C:\Users\xh\Desktop\ImportData\FullTest.xlsx</t>
-  </si>
-  <si>
     <t>1485k</t>
   </si>
   <si>
-    <t>C:\Users\xh\Desktop\ImportData\49.8M.xlsx</t>
-  </si>
-  <si>
     <t>49.8M</t>
   </si>
   <si>
-    <t>C:\Users\xh\Desktop\ImportData\数据源汇总.xlsx</t>
-  </si>
-  <si>
     <t>many sheets</t>
   </si>
   <si>
-    <t>apifixture.TempleteFixture</t>
+    <t>the Data of Response is filepath is not exists</t>
+  </si>
+  <si>
+    <t>文件后缀应该为xls,实际是xlsx</t>
+  </si>
+  <si>
+    <t>文件名称缺少csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>文件为空</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b </t>
   </si>
   <si>
     <t>获取tables的sheets接口测试用例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ds/{datasourceId}/tables </t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <r>
@@ -303,16 +312,37 @@
     </r>
   </si>
   <si>
-    <t>needInterface</t>
-  </si>
-  <si>
-    <t>needResult</t>
-  </si>
-  <si>
-    <t>{datasourceId}</t>
-  </si>
-  <si>
-    <t>zzj@data-god.com</t>
+    <t>url</t>
+  </si>
+  <si>
+    <t>_args</t>
+  </si>
+  <si>
+    <t>expectResult</t>
+  </si>
+  <si>
+    <t>http://pre.moojnn.com/mojing-server/login</t>
+  </si>
+  <si>
+    <t>先登录</t>
+  </si>
+  <si>
+    <t>http://pre.moojnn.com/mojing-server/ds/fileupload</t>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>"id":"\w{10}"</t>
+  </si>
+  <si>
+    <t>获取sheet表数据</t>
+  </si>
+  <si>
+    <t>apifixture.TempleteFixture</t>
   </si>
   <si>
     <t>接口测试用例</t>
@@ -333,8 +363,31 @@
     <t>projectId</t>
   </si>
   <si>
-    <r>
-      <t>C:\Users\water\Desktop\test</t>
+    <t>needprereqresult</t>
+  </si>
+  <si>
+    <t>apifixture.MultipleHttpFixture</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestMethod</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pre.moojnn.com/mojing-server/ds/{datasourceId}/tables</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"18015505671","password":"e10adc3949ba59abbe56e057f20f883e","code":""}</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"datasourceId":"%data%"}</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C:\Users\water\Desktop\ImportData\某公司销售数据</t>
     </r>
     <r>
       <rPr>
@@ -343,39 +396,42 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.txt</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"url":"pre.moojnn.com/mojing-server/login","name":"18015505671","password":"e10adc3949ba59abbe56e057f20f883e","code":""}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ds/fileupload</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C:\Users\water\Desktop\测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.txt</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+      <t>.xls</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\water\Desktop\ImportData\数据源汇总CSV.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\water\Desktop\ImportData\数据源汇总TXT.txt</t>
+  </si>
+  <si>
+    <t>C:\Users\water\Desktop\ImportData\49.8M.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\water\Desktop\ImportData\数据源汇总.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\water\Desktop\某公司销售数据.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\water\Desktop\ImportData\数据源汇总.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\water\Desktop\ImportData\FullTest.xlsx</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"filepath":"C:\Users\water\Desktop\ImportData\FullTest.xlsx"}</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +486,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -437,10 +529,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -474,7 +568,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -610,10 +704,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -623,6 +717,19 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -654,6 +761,35 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -710,9 +846,9 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,25 +909,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,10 +1035,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,34 +1053,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,17 +1407,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="51.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
@@ -1188,190 +1438,707 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="25"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>42</v>
+      <c r="B3" s="60" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" s="24" customFormat="1" ht="72">
-      <c r="A5" s="31" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" spans="1:6" s="57" customFormat="1" ht="72">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="33"/>
+      <c r="B5" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="67"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.25">
+      <c r="A8" s="69">
+        <v>1</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="57" customFormat="1" ht="14.25">
+      <c r="A9" s="69">
+        <v>2</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="57" customFormat="1" ht="14.25">
+      <c r="A10" s="69">
+        <v>3</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="57" customFormat="1" ht="14.25">
+      <c r="A11" s="69">
+        <v>4</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="57" customFormat="1" ht="14.25">
+      <c r="A12" s="69">
+        <v>5</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="57" customFormat="1" ht="14.25">
+      <c r="A13" s="57">
+        <v>6</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="57" customFormat="1" ht="28.5">
+      <c r="A14" s="57">
+        <v>7</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="57" customFormat="1" ht="28.5">
+      <c r="A15" s="57">
         <v>8</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="18">
-      <c r="A7" s="34" t="s">
+      <c r="B15" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="57" customFormat="1">
+      <c r="A16" s="57">
         <v>9</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.25">
-      <c r="A8" s="35">
-        <v>1</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="24" customFormat="1" ht="14.25">
-      <c r="A9" s="35">
-        <v>2</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="24" customFormat="1" ht="14.25">
-      <c r="A10" s="35">
-        <v>3</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="24" customFormat="1" ht="14.25">
-      <c r="A11" s="35">
-        <v>4</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="24" customFormat="1" ht="14.25">
-      <c r="A12" s="35">
-        <v>5</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="24" customFormat="1" ht="14.25">
-      <c r="A13" s="24">
-        <v>6</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="24" customFormat="1"/>
-    <row r="15" spans="1:6" s="24" customFormat="1"/>
-    <row r="16" spans="1:6" s="24" customFormat="1"/>
+      <c r="B16" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:F6"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" tooltip="http://pre.moojnn.com/mojing-server"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="46.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.5">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="4" spans="1:10" s="23" customFormat="1" ht="36">
+      <c r="A4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="40.5">
+      <c r="A5" s="35">
+        <v>1</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="27">
+      <c r="A6" s="41">
+        <v>2</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" s="26" customFormat="1" ht="42" customHeight="1">
+      <c r="A7" s="45">
+        <v>3</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="1:10" s="26" customFormat="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:10" s="26" customFormat="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" s="26" customFormat="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" s="26" customFormat="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" s="26" customFormat="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:10" s="26" customFormat="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:10" s="26" customFormat="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:10" s="26" customFormat="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" s="26" customFormat="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" s="26" customFormat="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" s="26" customFormat="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" s="26" customFormat="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" s="26" customFormat="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="1:8" s="26" customFormat="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="1:8" s="26" customFormat="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="47"/>
+    </row>
+    <row r="23" spans="1:8" s="26" customFormat="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="47"/>
+    </row>
+    <row r="24" spans="1:8" s="26" customFormat="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="47"/>
+    </row>
+    <row r="25" spans="1:8" s="26" customFormat="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:8" s="26" customFormat="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="47"/>
+    </row>
+    <row r="27" spans="1:8" s="26" customFormat="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="1:8" s="26" customFormat="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="50"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="50"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="50"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="50"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="50"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="50"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="50"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" tooltip="http://pre.moojnn.com/mojing-server/login"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="http://pre.moojnn.com/mojing-server/ds/fileupload"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="35.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="46.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="3" customWidth="1"/>
@@ -1380,12 +2147,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1398,10 +2165,10 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
@@ -1412,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1425,7 +2192,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1433,216 +2200,79 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="18">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1">
+      <c r="A7" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="18">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="D8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="14.25">
-      <c r="A8" s="19">
-        <v>1</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="14.25">
       <c r="A9" s="19">
-        <v>2</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="16">
-        <v>101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B9" s="20">
+        <v>9999</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="21"/>
     </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="14.25">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22">
+        <v>9999</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="http://pre.moojnn.com/mojing-server"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="14.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="46.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="18">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="14.25">
-      <c r="A9" s="19">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20">
-        <v>9999</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="14.25">
-      <c r="A10" s="19">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20">
-        <v>9999</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:F7"/>
-  </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B9" r:id="rId2" display="9999"/>
